--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3857.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3857.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.462233939187131</v>
+        <v>3.804605722427368</v>
       </c>
       <c r="B1">
-        <v>3.138137537344778</v>
+        <v>6.182538032531738</v>
       </c>
       <c r="C1">
-        <v>4.011086097721145</v>
+        <v>5.307006359100342</v>
       </c>
       <c r="D1">
-        <v>2.909771911724418</v>
+        <v>6.167904376983643</v>
       </c>
       <c r="E1">
-        <v>1.003320762507635</v>
+        <v>3.7728111743927</v>
       </c>
     </row>
   </sheetData>
